--- a/EXCEL-DUMP-Stakeholder-management.xlsx
+++ b/EXCEL-DUMP-Stakeholder-management.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19403"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\Projects\Papers-Working\dissertation-csrhub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBF15C5-4F7E-40D8-9EE7-D4E47DA6AF2C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179016"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,14 +24,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="71">
+  <si>
+    <t>Year</t>
+  </si>
   <si>
     <t>Concept</t>
   </si>
   <si>
+    <t>Theory</t>
+  </si>
+  <si>
     <t>Citation</t>
   </si>
   <si>
+    <t>Gap</t>
+  </si>
+  <si>
     <t>Main idea</t>
   </si>
   <si>
@@ -45,6 +53,9 @@
     <t>Notes 3</t>
   </si>
   <si>
+    <t>Further research</t>
+  </si>
+  <si>
     <t>Cross reference</t>
   </si>
   <si>
@@ -54,51 +65,115 @@
     <t>Page</t>
   </si>
   <si>
+    <t>Managing for multiple stakeholders</t>
+  </si>
+  <si>
+    <t>Bundy, J., Vogel, R. M. M., &amp; Zachary, M. A. A. (2018). Organization–stakeholder fit: A dynamic theory of cooperation, compromise, and conflict between an organization and its stakeholders. Strategic Management Journal, 39(2), 476–501.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Organization-stakeholder fit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Whether an organization cooperates, conflicts, or compromises with a stakeholder group depends on the org-stakeholder fit on values and strategic needs and resources. Cooperate when fit on both, conflict when fit on neither, compromise when fit on 1.</t>
+    </r>
+  </si>
+  <si>
+    <t>Dimension 1: value congruence. Dimension 2: strategic complementarity.</t>
+  </si>
+  <si>
+    <t>Cooperative behavior is equifinal, meaning multiple paths to effective cooperation. Moves from individual org performance to joint performance outcomes</t>
+  </si>
+  <si>
     <t>Theorization is built on assumption that greater trust between firm and stakeholder leads to higher performance of cooperation.</t>
   </si>
   <si>
+    <t>Trust</t>
+  </si>
+  <si>
     <t>Mitchell, R. K., Weaver, G. R., Agle, B. R., Bailey, A. D., &amp; Carlson, J. (2016). Stakeholder agency and Social welfare: Pluralism and decision making in the multi-objective corporation. Academy of Management Review, 41(2), 252–275. https://doi.org/10.5465/amr.2013.0486</t>
   </si>
   <si>
-    <t>Trust</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Multi-objective corporation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Asserts that social welfare and modern corporate objectives are linked, such that firms should pursue increasing social welfare, but there is a contradiction in how social welfare is seen as multidimensional but corporations are seen as singularly focused on shareholder wealth. Adopting a stakeholder-agentic perspective helps analyze how multi-objective decisionmaking can satisfy diverse interests of multiple stakeholders rather than only shareholders and by doing so increase social welfare and firm performance.</t>
+    </r>
+  </si>
+  <si>
+    <t>Calls for management theory to move away from a single-valued objective approach (shareholder wealth, stakeholder happiness) to a multivalued approach based on multiple stakeholder preferences.</t>
+  </si>
+  <si>
+    <t>A multi-objective utility function for a firm will increase stakehodler support through (1) increasing corporate legitimacy and (2) "better enabling agency theoretic monitoring" (267)</t>
   </si>
   <si>
     <t xml:space="preserve">     </t>
   </si>
   <si>
-    <t>Dimension 1: value congruence. Dimension 2: strategic complementarity.</t>
-  </si>
-  <si>
-    <t>Cooperative behavior is equifinal, meaning multiple paths to effective cooperation. Moves from individual org performance to joint performance outcomes</t>
+    <t>"We argue instead that through adoption of a multi-objective approach to managerial decision making, a broader array of invisible hand preferences and market signals can be engaged, opening the door to a more inclusive, less constraining process of coporate contributions to multidimensional, pluralistic social welfare" (253). "...corporations can better contribute to social welfare if they are reconceptualized as multi-objective venues in which stakeholders and management exchange resources, and if we recognize that such interaction need not alwyas resolve into a neat solution" (270)</t>
   </si>
   <si>
     <t>Lieberman, M. B., Garcia-Castro, R., &amp; Balasubramanian, N. (2017). Measuring value creation and appropriation in firms: The VCA model. Strategic Management Journal, 38, 1193–1211. http://doi.org/10.1002/smj</t>
   </si>
   <si>
+    <t>Firms create and appropriate value differently across stakeholder groups.</t>
+  </si>
+  <si>
+    <t>Tantalo and Priem (2016) on appropriating and creating value for mulitple stakeholder groups</t>
+  </si>
+  <si>
     <t>Li, J., Xia, J., &amp; Zajac, E. J. (2018). On the duality of political and economic stakeholder influence on firm innovation performance: Theory and evidence from Chinese firms. Strategic Management Journal, 39(1), 193–216. https://doi.org/10.1002/smj.2697</t>
   </si>
   <si>
     <t>A firm's innovation performance is shaped by its political stakeholders (ties to government) and economic stakeholders (through their innovativeness).</t>
   </si>
   <si>
+    <t>Innovation = f(economic stakeholders, political stakeholders). Measures econ with innovation and political with affiliation with government.</t>
+  </si>
+  <si>
     <t>Positive main effects. Negative interaction of stakeholders.</t>
   </si>
   <si>
-    <t>Innovation = f(economic stakeholders, political stakeholders). Measures econ with innovation and political with affiliation with government.</t>
-  </si>
-  <si>
     <t>Weak methods. Simply a tobit regression with many controls. Claims are not strongly backed by method.</t>
   </si>
   <si>
+    <t>Stakeholder salience</t>
+  </si>
+  <si>
     <t>Fernández Gago, R., &amp; Nieto Antolín, M. (2004). Stakeholder salience in corporate environmental strategy. Corporate Governance: The International Journal of Business in Society, 4(3), 65–76.</t>
   </si>
   <si>
-    <t>Bundy, J., Vogel, R. M. M., &amp; Zachary, M. A. A. (2018). Organization–stakeholder fit: A dynamic theory of cooperation, compromise, and conflict between an organization and its stakeholders. Strategic Management Journal, 39(2), 476–501.</t>
-  </si>
-  <si>
-    <t>Stakeholder salience</t>
-  </si>
-  <si>
     <t>Survey of Spanish manufacturing firms on the salience of various stakeholders on power-urgency-legitimacy framework found significant variation.</t>
   </si>
   <si>
@@ -108,9 +183,38 @@
     <t>Tantalo, C., &amp; Priem, R. L. (2016). Value creation through stakeholder synergy. Strategic Management Journal, 37(2), 314–329. https://doi.org/10.1002/smj.2337</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Stakeholder synergy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Pareto-efficient stakeholder management is possible. A single strategic action can increase value for multiple essential stakeholder groups without reducing value already received by any other essential stakeholder group.</t>
+    </r>
+  </si>
+  <si>
     <t>Multiple sources of value creation exist for each stakeholder group. This implies stakeholder groups care about different things and more than one thing.</t>
   </si>
   <si>
+    <t>Proposes simultaneous value creation, in contrast to prior theories of rotating or salience-prioritized value creation. They argue that "nonessential" stakeholders might best be managed using these other strategies rather than synergy, which implies simultaneous attention to multiple stakeholders (325). Also contrasts their stakeholder synergy approach against a "trade-off" approach and the shareholder primacy approach (325).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Firms can increase value for all stakeholder groups without reducing value for any. </t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -120,32 +224,87 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Stakeholder synergy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Pareto-efficient stakeholder management is possible. A single strategic action can increase value for multiple essential stakeholder groups without reducing value already received by any other essential stakeholder group.</t>
-    </r>
-  </si>
-  <si>
-    <t>Firms create and appropriate value differently across stakeholder groups.</t>
-  </si>
-  <si>
-    <t>Tantalo and Priem (2016) on appropriating and creating value for mulitple stakeholder groups</t>
+      <t>This allows firms to avoid trade-offs and instead create win-win value creation for all stakeholders.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) When and why do nonessential stakeholder groups become essential stakeholder groups (325)? (2) How to measure stakeholder group's utility function? (3) What tools or policies might help managers ID opportunities for creating shared value for multiple essential stakeholder groups? (4) How might focused firms identify and use the multi-attribute utility functions of stakeholder subgroups to pursue focused differentiation or cost leadership? </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lieberman, M. B., Garcia-Castro, R., &amp; Balasubramanian, N. (2017) on appropriating and creating value for mulitple stakeholder groups. Also ties to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>salience</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> literature because it rejects that firms need to prioritize stakeholders based on salience. Instead, firms can create value for all stakeholders or at least avoid decreasing value for any of them.</t>
+    </r>
   </si>
   <si>
     <t>"Managers can identify novel combinations of different utilities, each valued by different stakeholder groups, which may be increased together" (315).</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Firms can increase value for all stakeholder groups without reducing value for any. </t>
-    </r>
+    <t>Close relationship capability</t>
+  </si>
+  <si>
+    <t>Instrumental stakeholder theory</t>
+  </si>
+  <si>
+    <t>Jones, T. M., Harrison, J. S., &amp; Felps, W. (2018). How Applying Instrumental Stakeholder Theory Can Provide Sustainable Competitive Advantage. Academy of Management Review, (Online First).</t>
+  </si>
+  <si>
+    <t>How and in which contexts does a stakeholder mgmt strategy based on ethics associated with IST lead to sustainable competitive advantage?</t>
+  </si>
+  <si>
+    <r>
+      <t>Close relationship capability</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: "a communal sharing relational ethics strategy (CSRE), characterized by an intention to rely on relational contracts, joint wealth creation, high levels of mutual trust and cooperation, and communal sharing of property, can lead to what we call a close relationship capability. A close relationship capability helps a firm co-create more economic value with stakeholders" (5). Developing a CRC is difficult, which explains why many firms don't develop ethical relationships with stakeholders, but that difficulty makes it rare and hard to imitate, which provides a mechanism by which IST-based stakeholder management leads to sustainable copmetitive advantage within and RBT-based view of performance.</t>
+    </r>
+  </si>
+  <si>
+    <t>Benefits of a close relationship capability: improved reciprocal coordination, knowledge sharing, and stakeholder quality, lower transaction costs, and greater moral motivation. Costs: risks of exploitation through non-reciprocation, mis-allocation of jointly created value, unprofitable loyalty.</t>
+  </si>
+  <si>
+    <r>
+      <t>Stakeholder culture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: The firm's attitude toward stakeholders moderates the effect of a close relationship capability on firm performance. Costs are higher when firm is more self-regarding than other-regarding.</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -155,12 +314,22 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>This allows firms to avoid trade-offs and instead create win-win value creation for all stakeholders.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Lieberman, M. B., Garcia-Castro, R., &amp; Balasubramanian, N. (2017) on appropriating and creating value for mulitple stakeholder groups. Also ties to </t>
+      <t>Context</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as moderator: "dynamic, knowledge intensive, and interdependent environments increase the potential benefits associated with a close relationship capability" (6).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(1) Developing theoretical link b/t close relationship capability and actual sustainable competitive advantage. (2) More research on costs of communal relationship approach. (3) Costs of CSRE strategy when firm culture promotes contradictory norms. Can a firm with an agency or corporate egoist culture succeed with CSRE strategy. (4) What contextual factors moderate the direct relationship between CSRE and perf? (5) </t>
     </r>
     <r>
       <rPr>
@@ -171,30 +340,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>salience</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> literature because it rejects that firms need to prioritize stakeholders based on salience. Instead, firms can create value for all stakeholders or at least avoid decreasing value for any of them.</t>
-    </r>
-  </si>
-  <si>
-    <t>Proposes simultaneous value creation, in contrast to prior theories of rotating or salience-prioritized value creation. They argue that "nonessential" stakeholders might best be managed using these other strategies rather than synergy, which implies simultaneous attention to multiple stakeholders (325). Also contrasts their stakeholder synergy approach against a "trade-off" approach and the shareholder primacy approach (325).</t>
-  </si>
-  <si>
-    <t>Further research</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1) When and why do nonessential stakeholder groups become essential stakeholder groups (325)? (2) How to measure stakeholder group's utility function? (3) What tools or policies might help managers ID opportunities for creating shared value for multiple essential stakeholder groups? (4) How might focused firms identify and use the multi-attribute utility functions of stakeholder subgroups to pursue focused differentiation or cost leadership? </t>
-  </si>
-  <si>
-    <t>Managing for multiple stakeholders</t>
+      <t>Link between nature of firm's ethics and competitive advantage has rarely been addressed.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -206,59 +353,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Organization-stakeholder fit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Whether an organization cooperates, conflicts, or compromises with a stakeholder group depends on the org-stakeholder fit on values and strategic needs and resources. Cooperate when fit on both, conflict when fit on neither, compromise when fit on 1.</t>
-    </r>
-  </si>
-  <si>
-    <t>Calls for management theory to move away from a single-valued objective approach (shareholder wealth, stakeholder happiness) to a multivalued approach based on multiple stakeholder preferences.</t>
-  </si>
-  <si>
-    <t>A multi-objective utility function for a firm will increase stakehodler support through (1) increasing corporate legitimacy and (2) "better enabling agency theoretic monitoring" (267)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Multi-objective corporation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Asserts that social welfare and modern corporate objectives are linked, such that firms should pursue increasing social welfare, but there is a contradiction in how social welfare is seen as multidimensional but corporations are seen as singularly focused on shareholder wealth. Adopting a stakeholder-agentic perspective helps analyze how multi-objective decisionmaking can satisfy diverse interests of multiple stakeholders rather than only shareholders and by doing so increase social welfare and firm performance.</t>
-    </r>
-  </si>
-  <si>
-    <t>"We argue instead that through adoption of a multi-objective approach to managerial decision making, a broader array of invisible hand preferences and market signals can be engaged, opening the door to a more inclusive, less constraining process of coporate contributions to multidimensional, pluralistic social welfare" (253). "...corporations can better contribute to social welfare if they are reconceptualized as multi-objective venues in which stakeholders and management exchange resources, and if we recognize that such interaction need not alwyas resolve into a neat solution" (270)</t>
-  </si>
-  <si>
-    <t>Jones, T. M., Harrison, J. S., &amp; Felps, W. (2018). How Applying Instrumental Stakeholder Theory Can Provide Sustainable Competitive Advantage. Academy of Management Review, (Online First).</t>
-  </si>
-  <si>
-    <t>Gap</t>
-  </si>
-  <si>
-    <t>Instrumental stakeholder theory</t>
+      <t>RBV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> through developing theory of how close relationship capability is a rare imitable resource. </t>
+    </r>
   </si>
   <si>
     <t>Descriptive stakeholder theory</t>
@@ -267,109 +373,50 @@
     <t>Normative stakeholder theory</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Context</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> as moderator: "dynamic, knowledge intensive, and interdependent environments increase the potential benefits associated with a close relationship capability" (6).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Close relationship capability</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: "a communal sharing relational ethics strategy (CSRE), characterized by an intention to rely on relational contracts, joint wealth creation, high levels of mutual trust and cooperation, and communal sharing of property, can lead to what we call a close relationship capability. A close relationship capability helps a firm co-create more economic value with stakeholders" (5). Developing a CRC is difficult, which explains why many firms don't develop ethical relationships with stakeholders, but that difficulty makes it rare and hard to imitate, which provides a mechanism by which IST-based stakeholder management leads to sustainable copmetitive advantage within and RBT-based view of performance.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>RBV</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> through developing theory of how close relationship capability is a rare imitable resource. </t>
-    </r>
-  </si>
-  <si>
-    <t>How and in which contexts does a stakeholder mgmt strategy based on ethics associated with IST lead to sustainable competitive advantage?</t>
-  </si>
-  <si>
-    <t>Benefits of a close relationship capability: improved reciprocal coordination, knowledge sharing, and stakeholder quality, lower transaction costs, and greater moral motivation. Costs: risks of exploitation through non-reciprocation, mis-allocation of jointly created value, unprofitable loyalty.</t>
-  </si>
-  <si>
-    <r>
-      <t>Stakeholder culture</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: The firm's attitude toward stakeholders moderates the effect of a close relationship capability on firm performance. Costs are higher when firm is more self-regarding than other-regarding.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">(1) Developing theoretical link b/t close relationship capability and actual sustainable competitive advantage. (2) More research on costs of communal relationship approach. (3) Costs of CSRE strategy when firm culture promotes contradictory norms. Can a firm with an agency or corporate egoist culture succeed with CSRE strategy. (4) What contextual factors moderate the direct relationship between CSRE and perf? (5) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Link between nature of firm's ethics and competitive advantage has rarely been addressed.</t>
-    </r>
+    <t>Stakeholder sorting</t>
+  </si>
+  <si>
+    <t>Bridoux and Stoelhorst (2014). Microfoundations for stakeholder theory: Managing stakeholders with heterogeneous motives</t>
+  </si>
+  <si>
+    <t>Instrumental stakeholder theory predicts a positive relationship between treating stakeholders with fairness and firm performance, but firms are observed being successful using arms-length stakeholder treatment based on bargaining power. The gap is therefor how IST can accomodate this empirical rejection of the fairness-performance hypothesis.</t>
+  </si>
+  <si>
+    <t>Relaxes the assumption in IST that all stakeholders care about fairness, allowing some stakeholders to prioritize bargaining power over fairness. IST's singular focus on fairness makes it blind to how firms might increase their performance by treating stakeholders in ways the stakeholders care about, rather than assuming fairness motivates all stakeholders.</t>
+  </si>
+  <si>
+    <t>Reciprocal stakeholders care about fairness. Self-regarding stakeholders care about bargaining power. Firms should match their approach to type of stakeholder, with a fairness approach for reciprocal stakeholders and an arms-length approach for self-regarding stakeholders.</t>
+  </si>
+  <si>
+    <t>Two mechanisms connecting stakeholder management to firm performance through attracting, retaining, and motivating different stakeholder groups: (1) stakeholder management affects stakeholder motivation to contribute to value creation; (2) stakeholder management affects whether a stakeholder group will join, stay with, or leave the firm.</t>
+  </si>
+  <si>
+    <t>Claims social psychology and behavioral economics research on motivational heterogeneity supports their argument that INDIVIDUAL stakeholdes have different motivations, enabling differentiating stakeholder between reciprocators and self-regarding. Sets up competition between stakeholder mgmt and justice literatures that people care about fairness and economics literature that people care about themselves. LIMITATION: The paper theorizes about individual stakeholders. Open question of whether this logic also applies to stakeholder groups. And it seems stakeholder groups are far, far more important to firm performance than individual stakeholders, excepting maybe activist investors.</t>
+  </si>
+  <si>
+    <t>(1) The mechanisms are weak. Mechanism 1 is about value creation, but skimming the paper doesn't reveal creation for whom, distribution between firm/stakeholders, and how value capture works (They note the absence of value capture as a limitation of the paper on p. 119). Mechanism 2 seems like mechanisms 1 with different words: how is whether a stakeholder joins/stays/leaves different from stakeholder motivation to contribute to value creation? (2) Stakeholder sorting: Claims the majority of the population is reciprocators caring about fairness while a minority is self-regarding prioritizing bargaining power. How to know which stakeholders matter more to a particular firm or industry? This question connects this paper to my paper on identifying the stakeholders that matter most to firms/industries.</t>
+  </si>
+  <si>
+    <t>"We propose that a fairness approach is more effective in attracting, retaining, and motivating reciprocal stakeholders to create value, while an arms-length approach is more effective in motivating self-regarding stakeholders and in attracting and retaining self-regarding stakeholders with high bargaining power" (107).</t>
+  </si>
+  <si>
+    <t>Bounded self-interest (behavioral assumption of utility maximization bounded by concerns of fairness)</t>
+  </si>
+  <si>
+    <t>Bosse, Phillips, and Harrison (2009). Stakeholders, reciprocity, and firm performance.</t>
+  </si>
+  <si>
+    <t>Studies of the effect of stakeholder mgmt on firm performance tend to assume actors are utility maximizers. But much research suggests actors care about fairness. There is a need to integrate bounded self-interest into the theory about the stakeholder mgmt performance relationship.</t>
+  </si>
+  <si>
+    <t>"The propositions we derive suggest that firms ultimately create value by distributing it (in various forms) to those stakeholders who behave fairly" (448). This contrasts with typical assumptions that firms maximize the value they capture from value creation. Instead, under reciprocity, firms attempt to distribute some surplus value, in various forms, to a broad group of stakeholders. "By distributing this value, the firm creates a pattern of positive reciprocity among its stakeholders that supports the creation of additional rent" (454).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,12 +453,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -694,27 +744,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="92.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="92.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="102.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="48.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="58" style="1" customWidth="1"/>
-    <col min="7" max="8" width="63.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="65.5703125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="92.140625" style="1"/>
+    <col min="1" max="1" width="5.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="50.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="67.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="72" style="1" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="58" style="1" customWidth="1"/>
+    <col min="9" max="10" width="63.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="65.5703125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="92.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -722,193 +774,278 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="75">
+      <c r="A2" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="120">
+      <c r="A3" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="75">
+      <c r="A4" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="75">
+      <c r="A5" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="60">
+      <c r="A6" s="1">
+        <v>2004</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="120">
+      <c r="A7" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>45</v>
       </c>
+    </row>
+    <row r="8" spans="1:13" ht="150">
+      <c r="A8" s="1">
+        <v>2018</v>
+      </c>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="H8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="I8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="K8" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="C9" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="C10" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="195">
+      <c r="A11" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>47</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="120">
+      <c r="A12" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/EXCEL-DUMP-Stakeholder-management.xlsx
+++ b/EXCEL-DUMP-Stakeholder-management.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19403"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\Projects\Papers-Working\dissertation-csrhub\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4437CDF4-61B8-43E0-9256-070F5CC7964B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$M$13</definedName>
+  </definedNames>
   <calcPr calcId="179016"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="81">
   <si>
     <t>Year</t>
   </si>
@@ -410,13 +414,43 @@
   </si>
   <si>
     <t>"The propositions we derive suggest that firms ultimately create value by distributing it (in various forms) to those stakeholders who behave fairly" (448). This contrasts with typical assumptions that firms maximize the value they capture from value creation. Instead, under reciprocity, firms attempt to distribute some surplus value, in various forms, to a broad group of stakeholders. "By distributing this value, the firm creates a pattern of positive reciprocity among its stakeholders that supports the creation of additional rent" (454).</t>
+  </si>
+  <si>
+    <t>Harrison, J. S., Bosse, D. A., &amp; Phillips, R. A. (2010). Managing for stakeholders, stakeholder utility functions, and competitive advantage. Strategic Management Journal, 31, 58–74. http://doi.org/10.1002/smj</t>
+  </si>
+  <si>
+    <t>Harrison et al argues firms that know more about their stakeholders' utility functions will be more innovative. This paper claims to empirically examine the effect of stakeholder management on innovation outcomes: Li, J., Xia, J., &amp; Zajac, E. J. (2018). SMJ 39(1), 193–216.</t>
+  </si>
+  <si>
+    <t>Managing for stakeholders</t>
+  </si>
+  <si>
+    <t>Firms that manage for stakehodlers "allocate bot value and decision-making influence widely across their stakeholder networks" (59).</t>
+  </si>
+  <si>
+    <t>Much stakeholder research conflates CSR with stakeholder management, but from the beginning stakeholder management has been about managing a broad group of stakeholders rather than socail responsibility.</t>
+  </si>
+  <si>
+    <t>"there is not much in the research literature that systematically describes, at the level of a firm's relationship with a stakeholder, how a particular type of stakeholder treatment leads to competitive advantage" (59).</t>
+  </si>
+  <si>
+    <t>Stakeholder theory</t>
+  </si>
+  <si>
+    <t>The mechanism connecting multiple stakeholder management is trust. Mgmt increases stakeholder trust, which causes the stakeholder to share proprietary knowledge about its utility function. The firm can use that knowledge to create value. However, trust is not enough to cause sharing. There are arguments about justice and reciprocity here, too.</t>
+  </si>
+  <si>
+    <t>Utility functions contain information about (1) what factors stakeholder cares about and (2) how much each factor is weighted. This provides a nice tie-in to the need to consider heterogeneous stakeholder preferences.</t>
+  </si>
+  <si>
+    <t>Limitations to achieving competitive advantage with managing multiple stakeholders: (1) over-allocating value to stakeholders, (2) inability to measure value created using accounting measures, (3) lack of ability to translate knowledge into value creating opportunities, (4) measuring value creation over too short a time period, (5) potential for opportunism.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -744,40 +778,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="92.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="92.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="50.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="50.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="67.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="72" style="1" customWidth="1"/>
     <col min="7" max="7" width="48.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="58" style="1" customWidth="1"/>
-    <col min="9" max="10" width="63.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="63.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="67.5703125" style="1" customWidth="1"/>
     <col min="11" max="11" width="65.5703125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="92.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -807,124 +844,148 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="75">
-      <c r="A2" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2004</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2009</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2010</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="120">
-      <c r="A3" s="1">
+      <c r="F6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="1">
         <v>2016</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="75">
-      <c r="A4" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="75">
-      <c r="A5" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="60">
-      <c r="A6" s="1">
-        <v>2004</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="120">
-      <c r="A7" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>39</v>
@@ -948,107 +1009,123 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="150">
-      <c r="A8" s="1">
+    <row r="8" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1">
         <v>2018</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="C9" s="1" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D12" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="C10" s="1" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D13" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="195">
-      <c r="A11" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="120">
-      <c r="A12" s="1">
-        <v>2009</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="B1:M13" xr:uid="{CA54DBEA-432F-4FD6-A089-4200BBDA5AE0}">
+    <sortState ref="B2:M13">
+      <sortCondition ref="B1:B13"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/EXCEL-DUMP-Stakeholder-management.xlsx
+++ b/EXCEL-DUMP-Stakeholder-management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\Projects\Papers-Working\dissertation-csrhub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4437CDF4-61B8-43E0-9256-070F5CC7964B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54DD935-4E23-450A-ADD7-97A6923EDFD3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$M$13</definedName>
   </definedNames>
-  <calcPr calcId="179016"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="106">
   <si>
     <t>Year</t>
   </si>
@@ -444,6 +444,104 @@
   </si>
   <si>
     <t>Limitations to achieving competitive advantage with managing multiple stakeholders: (1) over-allocating value to stakeholders, (2) inability to measure value created using accounting measures, (3) lack of ability to translate knowledge into value creating opportunities, (4) measuring value creation over too short a time period, (5) potential for opportunism.</t>
+  </si>
+  <si>
+    <t>Pays to be green</t>
+  </si>
+  <si>
+    <t>Overall, firms perceived regulators and international agreements as the most important stakeholder groups for their corporate environmetnal policy formulation.</t>
+  </si>
+  <si>
+    <t>Firms with enviro leadership strategies seemed to care only about internal primary stakeholders and not other stakeholder groups. This could result from the studied firms (Belgian manufacturing firms) being B2B rather than B2C so they don't interact with external primary stakeholders like customers.</t>
+  </si>
+  <si>
+    <t>Buysse, K., &amp; Verbeke, A. (2003). Proactive Environmental Strategies: A Stakeholder Management Perspective. Strategic Management Journal, 24(5), 453–470.</t>
+  </si>
+  <si>
+    <t>Managing for multiple stakeholders relationship to environmental strategy</t>
+  </si>
+  <si>
+    <t>Different stakeholders matter in different ways to firms' corporate environmetnal strategy. Data are from Belgian manufacturing firms that are mostly B2B mid-supply chain operators. Internal, primary stakeholders seemed most important to the firms that had an enviro leadership strategy.</t>
+  </si>
+  <si>
+    <t>Tashman, P., &amp; Raelin, J. (2013). Who and What Really Matters to the Firm: Moving Stakeholder Salience beyond Managerial Perceptions. Business Ethics Quarterly, 23(4), 591–616. http://doi.org/10.5840/beq201323441</t>
+  </si>
+  <si>
+    <t>Stakeholder-agency theory</t>
+  </si>
+  <si>
+    <t>Stakeholder salience to the firm</t>
+  </si>
+  <si>
+    <t>The concept of stakeholder salience is based on managerial perception, but some stakeholders should matter to the firm even when managers don't perceive them as important. They develop the concept of stakeholder salience to the firm that expands salience evaluation beyond firm managers to include the societal level of analysis, such that stakeholder salience is a function of both organization-level and society-level perceptions.</t>
+  </si>
+  <si>
+    <t>Convergent stakeholder theory</t>
+  </si>
+  <si>
+    <t>"The fundamental goal of convergent stakeholder theory is to reconcile its normative and instrumental strands and prescribe decision making that helps firms prosper while treating stakeholders ethically" (Tashman &amp; Raelin (2013)</t>
+  </si>
+  <si>
+    <t>Models testing stakeholder salience are misspecified if they include only managers' assessment of salience and omit stakeholders' assessment of salience of themselves and other stakeholders.</t>
+  </si>
+  <si>
+    <t>Move salience from salience to managers [salience = f (manager perception)] to salience to the firm [salience = f (manager perception, stakeholder perception)]. Managers that correctly assess stakeholder salience should have improved firm performance, but empirical studies find mixed results. They argue this is because market frictions can prevent managers from correctly assessing stakeholder salience. Stakeholder dialogue can reduce the negative affect of frictions.</t>
+  </si>
+  <si>
+    <t>Market frictions (they draw on nexus of contracts here so market frictions are problems that prevent complete contracting) that are low should make manager assessment better, such that market frictions positively moderate the manager-based salience firm performance link. When market frictions are high, they negatively moderate the link. But engaging in stakeholder dialogue is a moderator of the moderation effect and can reduce the negative moderation of high market frictions.</t>
+  </si>
+  <si>
+    <t>Mitchell, Agle, and Wood's (1997) original formualtion of salience around power, urgency, and legitimacy needs a stronger normative component to prevent powerful stakeholders from dominating managers' attention. The refined concept of stakeholder salience to the firm includes a normative component by recognizing hypernorms, institutional expectations, and stakeholder perceptions of legitimacy and urgency.</t>
+  </si>
+  <si>
+    <t>How to assess perceptions of salience across multiple stakeholder groups. How to modify scales developed to assess managers' perceptions of power, legitimacy, and urgency to assess other stakeholder groups' perceptions of these characteristics?</t>
+  </si>
+  <si>
+    <t>Hall, M., Millo, Y., &amp; Barman, E. (2015). Who and What Really Counts? Stakeholder Prioritization and Accounting for Social Value. Journal of Management Studies, 52(7), 907–934. http://doi.org/10.1111/joms.12146</t>
+  </si>
+  <si>
+    <t>Stakeholder management</t>
+  </si>
+  <si>
+    <t>Stakeholder management research has not addressed how organizational practices influence stakeholder prioritization.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A firm's accounting and reporting system influences which stakeholders view as salient to the firm, demonstrating that </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stakeholder prioritization is not driven solely by managerial decisions but is influenced by the systems used in the process of stakeholder prioritization decisions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Two research questions: (1) How do managers develop an accounting and reporting system to reflect their prioritizaiton of stakeholders? (2) What factors influence managers' ability to construct an accounting and reporting system to incorporate the voices of salient stakeholders?</t>
+  </si>
+  <si>
+    <t>They study the Social Return on Investemnt accounting methodology and compare cases in the UK and US. They find that organizations customize the SROI system in ways that reflects different assumptions and resources available to managers.</t>
+  </si>
+  <si>
+    <t>From their findings, they enrich stakeholder prioritization theory by noting the importance of managers' assumptions about which types of knowledge are valid and acceptable and of the technical and matrial resources available to managers to assess stakeholders.</t>
+  </si>
+  <si>
+    <t>Test the two propositions they develop: (1) Prioritization of stakeholder voices (which stakeholders' voices are included, how are they represented and measured) is influenced by managers' epistemic beliefs (such as what counts as valid and appropriate data). (2) Ability of managers to develop accounting and reporting system consisten with their epistemic beliefs is shaped by organization's material conditions (nature of existing data collection and reporting systems, access to financial resources, access to necessary labor and expertise).</t>
   </si>
 </sst>
 </file>
@@ -778,24 +876,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="92.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="41.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="67.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="72" style="1" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="59" style="1" customWidth="1"/>
     <col min="8" max="8" width="58" style="1" customWidth="1"/>
     <col min="9" max="9" width="63.42578125" style="1" customWidth="1"/>
     <col min="10" max="10" width="67.5703125" style="1" customWidth="1"/>
@@ -1110,18 +1208,113 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2003</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="D12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="D14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D15" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D16" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D13" s="1" t="s">
-        <v>57</v>
+    <row r="17" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:M13" xr:uid="{CA54DBEA-432F-4FD6-A089-4200BBDA5AE0}">
+  <autoFilter ref="B1:M13" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState ref="B2:M13">
       <sortCondition ref="B1:B13"/>
     </sortState>
